--- a/inst/extdata/screening_dict.xlsx
+++ b/inst/extdata/screening_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>visit_reason_a3_c_1</t>
   </si>
@@ -92,9 +92,6 @@
     <t>a3_dobk</t>
   </si>
   <si>
-    <t>dob_known</t>
-  </si>
-  <si>
     <t>age_yr</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>visit_reason_a3_c_3a</t>
   </si>
   <si>
-    <t>cg_age_known</t>
-  </si>
-  <si>
     <t>visit_reason_a3_c_3b</t>
   </si>
   <si>
@@ -167,7 +161,19 @@
     <t>repeat_consult</t>
   </si>
   <si>
-    <t>caregivers</t>
+    <t>dob_knwn</t>
+  </si>
+  <si>
+    <t>cg_age_knwn</t>
+  </si>
+  <si>
+    <t>cgs</t>
+  </si>
+  <si>
+    <t>visit_reason_a3_c_2o</t>
+  </si>
+  <si>
+    <t>cgs_oth</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +198,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,11 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,16 +512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -515,79 +534,79 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -595,108 +614,116 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/inst/extdata/screening_dict.xlsx
+++ b/inst/extdata/screening_dict.xlsx
@@ -113,9 +113,6 @@
     <t>age_excl</t>
   </si>
   <si>
-    <t>date_screen</t>
-  </si>
-  <si>
     <t>visit_reason_a3_c_3a</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>cgs_oth</t>
+  </si>
+  <si>
+    <t>date_visit</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -546,7 +546,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -610,15 +610,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,26 +631,26 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -687,36 +687,36 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">

--- a/inst/extdata/screening_dict.xlsx
+++ b/inst/extdata/screening_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>visit_reason_a3_c_1</t>
   </si>
@@ -62,9 +62,6 @@
     <t>a3_a3_a_8</t>
   </si>
   <si>
-    <t>a3_a3_a_9</t>
-  </si>
-  <si>
     <t>visit_reason_main_cg</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>age_days</t>
-  </si>
-  <si>
     <t>main_cg</t>
   </si>
   <si>
@@ -167,13 +161,34 @@
     <t>cgs</t>
   </si>
   <si>
-    <t>visit_reason_a3_c_2o</t>
-  </si>
-  <si>
     <t>cgs_oth</t>
   </si>
   <si>
     <t>date_visit</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>a3_a3_a_5</t>
+  </si>
+  <si>
+    <t>age_mo_knwn</t>
+  </si>
+  <si>
+    <t>visit_reason_a3_c_1o</t>
+  </si>
+  <si>
+    <t>consent_enrolment</t>
+  </si>
+  <si>
+    <t>enrolled</t>
   </si>
 </sst>
 </file>
@@ -226,12 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,66 +551,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>44</v>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -606,32 +622,32 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
@@ -639,92 +655,116 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/screening_dict.xlsx
+++ b/inst/extdata/screening_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>visit_reason_a3_c_1</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>enrolled</t>
+  </si>
+  <si>
+    <t>system_submitter_id</t>
   </si>
 </sst>
 </file>
@@ -528,16 +531,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -574,196 +577,204 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
